--- a/Documentos/Diagrama en Ficha para editar.xlsx
+++ b/Documentos/Diagrama en Ficha para editar.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Candela\Documents\GitHub\RamosHnos\Documentos\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
@@ -58,6 +63,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -72,10 +80,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>644271</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -99,7 +107,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4454271" cy="5400674"/>
+          <a:ext cx="5057775" cy="6667500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -115,16 +123,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -133,7 +141,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1390650" y="209550"/>
+          <a:off x="1524000" y="257175"/>
           <a:ext cx="1809750" cy="142874"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -182,16 +190,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>742950</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -200,7 +208,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="742950" y="657225"/>
+          <a:off x="857250" y="809625"/>
           <a:ext cx="1809750" cy="142874"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -240,7 +248,7 @@
                 </a:schemeClr>
               </a:solidFill>
             </a:rPr>
-            <a:t>Cliente</a:t>
+            <a:t>Gerente</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -250,15 +258,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>457199</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>142874</xdr:rowOff>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2483</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76199</xdr:rowOff>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>165651</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -267,8 +275,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="457199" y="1095374"/>
-          <a:ext cx="3857625" cy="123825"/>
+          <a:off x="504824" y="1335983"/>
+          <a:ext cx="3857625" cy="163168"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -300,32 +308,15 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-AR" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Es el encargado de hacer el registro</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> de los clientes .</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-AR" sz="1000">
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:endParaRPr>
+            <a:rPr lang="es-AR" sz="1000" i="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Registrar y actualizar los datos del cliente</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -334,15 +325,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>295276</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -351,8 +342,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="57150" y="2019300"/>
-          <a:ext cx="2524126" cy="2438400"/>
+          <a:off x="38100" y="2486026"/>
+          <a:ext cx="2905125" cy="3057524"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -379,36 +370,126 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr lang="es-AR" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>PASOS</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> DEL USE CASE</a:t>
-          </a:r>
-          <a:endParaRPr lang="es-AR" sz="1000">
+            <a:rPr lang="es-AR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> Comienza cuando se ingresa a la pantalla "Registrar Clientes".</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>2. Se selecciona de una lista desplegable el tipo de documento y se ingresa el número de documento.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3. De no exisitir el cliente, se muestra en mensaje "el cliente no existe", y se procede a completar los datos correspondientes.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>4. Si se desea, se ingresa de una lista desplegable el</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="es-AR" sz="900" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> sexo, estado civil, condición iva y categoría , y se ingresa además  cuil, apellido, nombre, email, domicilio,telefono de contacto, crédito máximo, día de visita y distribuidor asignado. </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="0" lang="es-AR" sz="900" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>5. Se selecciona en la opció Guardar, y figura un mensaje "Cliente guardado".</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-AR" sz="900">
             <a:solidFill>
               <a:schemeClr val="bg1">
                 <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
           </a:endParaRPr>
         </a:p>
       </xdr:txBody>
@@ -418,15 +499,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:colOff>742949</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>59121</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>7883</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -435,8 +516,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2695575" y="2019300"/>
-          <a:ext cx="1752600" cy="2476500"/>
+          <a:off x="3028949" y="2535621"/>
+          <a:ext cx="1990725" cy="2996762"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -463,30 +544,10 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1000">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>PASOS</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="es-AR" sz="1000" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> DEL USE CASE</a:t>
-          </a:r>
           <a:endParaRPr lang="es-AR" sz="1000">
             <a:solidFill>
               <a:schemeClr val="bg1">
@@ -495,8 +556,327 @@
             </a:solidFill>
           </a:endParaRPr>
         </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3. Se muestran los restantes</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> datos del cliente.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3.1 Si se desea actualizar algún dato, se lo modifica y luego se selecciona el botón guardar y muestra en mensaje si se desea guardar los cambios.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3.2. Si acepta los cambios realizados, se guardan los mismos</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>3.3 Si cancela los cambios realizados, no se guardan.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Termina U.C</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-AR" sz="900" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>4.1 Si no se desea registrar un cliente, se selecciona la opción cancelar.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-AR" sz="900" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Termina U.C</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="es-AR" sz="900" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>5.1 Si no se desea registrar un cliente, se selecciona la opción cancelar.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="es-AR" sz="1000" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="es-AR" sz="1000" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>447674</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="CuadroTexto 9"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4571999" y="257174"/>
+          <a:ext cx="447675" cy="142875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="900">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>496957</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>8283</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="5068957" cy="198783"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -545,7 +925,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -580,7 +960,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -791,14 +1171,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
